--- a/quickstart-pytorch/experiment1.xlsx
+++ b/quickstart-pytorch/experiment1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredhn/codespace/cs243/cs243-final/quickstart-pytorch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0EC5FB3-65D6-CB40-BB2E-0D02CD2BC75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C73A37-A0C5-A54F-A3B5-0528D344AE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{92AB641A-190B-564D-8BE0-6CC34B33A3DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Experiment 1: Experiments based on ratio of good client to bad client</t>
   </si>
@@ -56,6 +56,15 @@
   </si>
   <si>
     <t>Round</t>
+  </si>
+  <si>
+    <t>Clipping</t>
+  </si>
+  <si>
+    <t>Clipping (rounds=2)</t>
+  </si>
+  <si>
+    <t>Clipping (rounds = 2)</t>
   </si>
 </sst>
 </file>
@@ -97,10 +106,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -111,6 +119,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFDDC000"/>
+      <color rgb="FF007FFF"/>
       <color rgb="FF0054AB"/>
       <color rgb="FF052B58"/>
       <color rgb="FFFF352A"/>
@@ -212,10 +222,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.1737346101231184E-2"/>
-          <c:y val="0.14569933314836253"/>
-          <c:w val="0.90697674418604646"/>
-          <c:h val="0.74641478745897949"/>
+          <c:x val="7.5619226882235435E-2"/>
+          <c:y val="0.19831151088015644"/>
+          <c:w val="0.90309481242522116"/>
+          <c:h val="0.69380263043198698"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -228,9 +238,9 @@
             <c:v>PRIMES</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="052B58">
+                <a:srgbClr val="007FFF">
                   <a:alpha val="88000"/>
                 </a:srgbClr>
               </a:solidFill>
@@ -243,11 +253,11 @@
             <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="007FFF"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="007FFF"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -353,7 +363,7 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="052B58">
+                <a:srgbClr val="007FFF">
                   <a:alpha val="58000"/>
                 </a:srgbClr>
               </a:solidFill>
@@ -366,13 +376,13 @@
             <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="052B58">
+                <a:srgbClr val="007FFF">
                   <a:alpha val="81035"/>
                 </a:srgbClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="052B58"/>
+                  <a:srgbClr val="007FFF"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -476,9 +486,9 @@
             <c:v>PRIMES3</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="0054AB"/>
+                <a:srgbClr val="007FFF"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -489,11 +499,11 @@
             <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0054AB"/>
+                <a:srgbClr val="007FFF"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="052B58"/>
+                  <a:srgbClr val="007FFF"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -599,7 +609,7 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="0054AB"/>
+                <a:srgbClr val="007FFF"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -610,11 +620,11 @@
             <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="00B0FF"/>
+                <a:srgbClr val="007FFF"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="052B58"/>
+                  <a:srgbClr val="007FFF"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -720,8 +730,8 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="0054AB">
-                  <a:alpha val="67011"/>
+                <a:srgbClr val="007FFF">
+                  <a:alpha val="67000"/>
                 </a:srgbClr>
               </a:solidFill>
               <a:round/>
@@ -733,11 +743,11 @@
             <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="052B58"/>
+                <a:srgbClr val="007FFF"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:srgbClr val="007FFF"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -850,8 +860,8 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF352A"/>
@@ -979,9 +989,7 @@
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1210,7 +1218,7 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="C00000"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1221,13 +1229,11 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="C00000"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1333,7 +1339,7 @@
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="C00000"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1344,13 +1350,11 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="C00000"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1447,8 +1451,618 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>Clipping (rounds=2)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000">
+                  <a:alpha val="90000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$15:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$26:$M$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.13639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1933</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38140000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37680000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.54369999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6904-A44F-80E3-FEE067DDB7FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>Clipping2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000">
+                  <a:alpha val="78912"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$15:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$27:$M$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9.5299999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5799999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6699999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9400000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9599999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1232</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.41539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4834</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6904-A44F-80E3-FEE067DDB7FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:v>Clipping3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$15:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$28:$M$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9.5100000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1769</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1822</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.30719999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6904-A44F-80E3-FEE067DDB7FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:v>Clipping4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$15:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$29:$M$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.5699999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28089999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39810000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4073</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42609999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50019999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59230000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.67110000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6904-A44F-80E3-FEE067DDB7FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:v>Clipping5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000">
+                  <a:alpha val="70000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$15:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$30:$M$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.1079</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17760000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2034</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2059</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2268</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6904-A44F-80E3-FEE067DDB7FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1503,7 +2117,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1500" baseline="0"/>
-                  <a:t>Training Round</a:t>
+                  <a:t>Training Round (out of 10)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1620,7 +2234,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1500" baseline="0"/>
-                  <a:t>Aggregated Accuracy (%)</a:t>
+                  <a:t>Aggregated Accuracy (out of 1)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1864,10 +2478,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.1737346101231184E-2"/>
+          <c:x val="6.5558244191383772E-2"/>
           <c:y val="0.14569933314836253"/>
-          <c:w val="0.90697674418604646"/>
-          <c:h val="0.74641478745897949"/>
+          <c:w val="0.91315579773712796"/>
+          <c:h val="0.74869814819975589"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1890,7 +2504,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="triangle"/>
-            <c:size val="11"/>
+            <c:size val="12"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="0054AB"/>
@@ -1905,7 +2519,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$28:$M$28</c:f>
+              <c:f>Sheet1!$C$34:$M$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1947,7 +2561,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$29:$M$29</c:f>
+              <c:f>Sheet1!$C$35:$M$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2011,7 +2625,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="square"/>
-            <c:size val="8"/>
+            <c:size val="12"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -2026,7 +2640,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$28:$M$28</c:f>
+              <c:f>Sheet1!$C$34:$M$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2068,7 +2682,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$30:$M$30</c:f>
+              <c:f>Sheet1!$C$36:$M$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2112,6 +2726,127 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-CD34-A346-90B0-7F65E59016C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Clipping (rounds = 2)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$34:$M$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$37:$M$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.10007999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13513999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1583</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18956000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24692000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26513999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35069999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.42375999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.48102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1181-3A4C-BEA8-CFA26E893CDC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2170,7 +2905,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1500" baseline="0"/>
-                  <a:t>Training Round</a:t>
+                  <a:t>Training Round (out of 10)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2226,7 +2961,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2287,7 +3022,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1500" baseline="0"/>
-                  <a:t>Aggregated Accuracy (%)</a:t>
+                  <a:t>Aggregated Accuracy (out of 1)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2387,7 +3122,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2435,6 +3170,812 @@
     <a:p>
       <a:pPr>
         <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average FL Training Round vs. Accuracy on CIFAR-10 (50 clients with various data corruption levels)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12427257626497536"/>
+          <c:y val="3.348740416828562E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.3553514040439883E-2"/>
+          <c:y val="0.1859391124919087"/>
+          <c:w val="0.89395555687968131"/>
+          <c:h val="0.67320841674488663"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>PRIMES</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0054AB"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$39:$M$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$40:$M$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32479999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37290000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45129999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49530000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51439999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0249-F844-B4CF-9B8EE0EC692D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>FedAvg</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$39:$M$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$41:$M$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9.3899999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29310000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.34699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3715</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.40649999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0249-F844-B4CF-9B8EE0EC692D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Clipping (rounds=3)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$39:$M$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$42:$M$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21510000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33510000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36830000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.40479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43769999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45579999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CF90-694E-BAC4-251787D911F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1616695663"/>
+        <c:axId val="2034553088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1616695663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="55"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t>Training Round (out of 50)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2034553088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2034553088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t>Aggregated Accuracy (out of 1)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.0827403973458943E-2"/>
+              <c:y val="0.30813099231871993"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1616695663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="052B58"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31178366155574161"/>
+          <c:y val="0.1000537156558986"/>
+          <c:w val="0.36108291786593888"/>
+          <c:h val="4.7903820821808822E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1500" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2527,6 +4068,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3559,20 +5140,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>317501</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>35983</xdr:rowOff>
+      <xdr:colOff>641950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>129365</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>520701</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>182033</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>486636</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>71215</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3599,16 +5696,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>443022</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>369184</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>162442</xdr:rowOff>
+      <xdr:rowOff>44303</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>443023</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>103372</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>753139</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>191977</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3630,6 +5727,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>452034</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>11762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>64576</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>107626</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BE91BD1-41D2-4549-B4E4-E690B07744D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3935,10 +6070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EFC97D-B927-044D-9B33-6358E09A8C06}">
-  <dimension ref="B1:M30"/>
+  <dimension ref="B1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="86" workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="50" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="R69" sqref="R69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3953,28 +6088,19 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="3"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="3"/>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="3"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="3"/>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
+      <c r="B8" s="2"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
@@ -3985,560 +6111,937 @@
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3">
         <v>0</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>1</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>2</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>3</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>4</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>5</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>6</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>7</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>8</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>9</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>0.13200000000000001</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>0.1671</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>0.19939999999999999</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>0.24690000000000001</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>0.3382</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>0.40089999999999998</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>0.42649999999999999</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>0.51390000000000002</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <v>0.58530000000000004</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="3">
         <v>0.67510000000000003</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="3">
         <v>0.76919999999999999</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>8.0500000000000002E-2</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>0.12590000000000001</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>0.16489999999999999</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>0.21099999999999999</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>0.34520000000000001</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>0.48170000000000002</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>0.48820000000000002</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>0.50370000000000004</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="3">
         <v>0.63460000000000005</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="3">
         <v>0.76829999999999998</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3">
         <v>0.1138</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>0.115</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>0.1169</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>0.12670000000000001</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>0.2306</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>0.34620000000000001</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>0.40539999999999998</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>0.46400000000000002</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <v>0.61419999999999997</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="3">
         <v>0.72760000000000002</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="3">
         <v>0.79249999999999998</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3">
         <v>9.98E-2</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>0.1128</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>0.1132</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>0.12970000000000001</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>0.15459999999999999</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>0.20619999999999999</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>0.28949999999999998</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <v>0.37440000000000001</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <v>0.4536</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="3">
         <v>0.51980000000000004</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="3">
         <v>0.61180000000000001</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>0.1012</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>0.11940000000000001</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>0.15640000000000001</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>0.2296</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>0.29799999999999999</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>0.39150000000000001</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
         <v>0.47070000000000001</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <v>0.55830000000000002</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="3">
         <v>0.62190000000000001</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="3">
         <v>0.75590000000000002</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>0.1031</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>0.11219999999999999</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>0.1336</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>0.13400000000000001</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>0.14760000000000001</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>0.16250000000000001</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>0.184</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <v>0.1991</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <v>0.2122</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="3">
         <v>0.23280000000000001</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="3">
         <v>0.29630000000000001</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>9.8100000000000007E-2</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>0.1016</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>0.14680000000000001</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>0.26100000000000001</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>0.29370000000000002</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>0.37419999999999998</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
         <v>0.40029999999999999</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <v>0.40749999999999997</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="3">
         <v>0.39600000000000002</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="3">
         <v>0.44209999999999999</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3">
         <v>0.11899999999999999</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>0.13220000000000001</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>0.14899999999999999</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>0.16439999999999999</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>0.182</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>0.22520000000000001</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>0.31340000000000001</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
         <v>0.37280000000000002</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <v>0.47389999999999999</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="3">
         <v>0.58930000000000005</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="3">
         <v>0.60199999999999998</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3">
         <v>9.5200000000000007E-2</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>9.5799999999999996E-2</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>9.9299999999999999E-2</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>0.10680000000000001</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>0.1096</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <v>0.1182</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>0.19</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="3">
         <v>0.26419999999999999</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="3">
         <v>0.37530000000000002</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="3">
         <v>0.49170000000000003</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="3">
         <v>0.51349999999999996</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3">
         <v>0.1033</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>0.14330000000000001</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>0.18010000000000001</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>0.2122</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <v>0.26419999999999999</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <v>0.3201</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="3">
         <v>0.35399999999999998</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="3">
         <v>0.35639999999999999</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="3">
         <v>0.31069999999999998</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="3">
         <v>0.32440000000000002</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="3">
         <v>0.30769999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.13639999999999999</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.1933</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.21440000000000001</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.22320000000000001</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.27629999999999999</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.33169999999999999</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.38140000000000002</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0.37680000000000002</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0.41120000000000001</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0.47789999999999999</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0.54369999999999996</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
-        <v>5</v>
+      <c r="C27" s="3">
+        <v>9.5299999999999996E-2</v>
+      </c>
+      <c r="D27" s="3">
+        <v>9.5799999999999996E-2</v>
+      </c>
+      <c r="E27" s="3">
+        <v>9.6699999999999994E-2</v>
+      </c>
+      <c r="F27" s="3">
+        <v>9.9400000000000002E-2</v>
+      </c>
+      <c r="G27" s="3">
+        <v>9.9599999999999994E-2</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0.1232</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0.19550000000000001</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0.33960000000000001</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0.41539999999999999</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0.4834</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0</v>
-      </c>
-      <c r="D28" s="4">
-        <v>1</v>
-      </c>
-      <c r="E28" s="4">
-        <v>2</v>
-      </c>
-      <c r="F28" s="4">
-        <v>3</v>
-      </c>
-      <c r="G28" s="4">
-        <v>4</v>
-      </c>
-      <c r="H28" s="4">
-        <v>5</v>
-      </c>
-      <c r="I28" s="4">
-        <v>6</v>
-      </c>
-      <c r="J28" s="4">
-        <v>7</v>
-      </c>
-      <c r="K28" s="4">
-        <v>8</v>
-      </c>
-      <c r="L28" s="4">
-        <v>9</v>
-      </c>
-      <c r="M28" s="4">
-        <v>10</v>
+      <c r="C28" s="3">
+        <v>9.5100000000000004E-2</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.10539999999999999</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.13059999999999999</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.15329999999999999</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.1769</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.1822</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0.18909999999999999</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0.18160000000000001</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0.21190000000000001</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0.26469999999999999</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0.30719999999999997</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+      <c r="C29" s="3">
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.11849999999999999</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.17219999999999999</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.28089999999999998</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.39810000000000001</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.4073</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.42609999999999998</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0.50019999999999998</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0.59230000000000005</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0.67110000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C30" s="3">
+        <v>0.1079</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.16270000000000001</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.17760000000000001</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.191</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.2034</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.2059</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0.2268</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0.29060000000000002</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0.36849999999999999</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0.3997</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
         <v>2</v>
       </c>
-      <c r="C29">
+      <c r="F34" s="3">
+        <v>3</v>
+      </c>
+      <c r="G34" s="3">
+        <v>4</v>
+      </c>
+      <c r="H34" s="3">
+        <v>5</v>
+      </c>
+      <c r="I34" s="3">
+        <v>6</v>
+      </c>
+      <c r="J34" s="3">
+        <v>7</v>
+      </c>
+      <c r="K34" s="3">
+        <v>8</v>
+      </c>
+      <c r="L34" s="3">
+        <v>9</v>
+      </c>
+      <c r="M34" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35">
         <f>AVERAGE(C16:C20)</f>
         <v>0.10112000000000002</v>
       </c>
-      <c r="D29">
-        <f t="shared" ref="D29:M29" si="0">AVERAGE(D16:D20)</f>
+      <c r="D35">
+        <f>AVERAGE(D16:D20)</f>
         <v>0.11532000000000001</v>
       </c>
-      <c r="E29">
-        <f t="shared" si="0"/>
+      <c r="E35">
+        <f>AVERAGE(E16:E20)</f>
         <v>0.13496000000000002</v>
       </c>
-      <c r="F29">
-        <f t="shared" si="0"/>
+      <c r="F35">
+        <f>AVERAGE(F16:F20)</f>
         <v>0.16492000000000001</v>
       </c>
-      <c r="G29">
-        <f t="shared" si="0"/>
+      <c r="G35">
+        <f>AVERAGE(G16:G20)</f>
         <v>0.23279999999999998</v>
       </c>
-      <c r="H29">
-        <f t="shared" si="0"/>
+      <c r="H35">
+        <f>AVERAGE(H16:H20)</f>
         <v>0.31930000000000003</v>
       </c>
-      <c r="I29">
-        <f t="shared" si="0"/>
+      <c r="I35">
+        <f>AVERAGE(I16:I20)</f>
         <v>0.39892</v>
       </c>
-      <c r="J29">
-        <f t="shared" si="0"/>
+      <c r="J35">
+        <f>AVERAGE(J16:J20)</f>
         <v>0.46223999999999998</v>
       </c>
-      <c r="K29">
-        <f t="shared" si="0"/>
+      <c r="K35">
+        <f>AVERAGE(K16:K20)</f>
         <v>0.54301999999999995</v>
       </c>
-      <c r="L29">
-        <f t="shared" si="0"/>
+      <c r="L35">
+        <f>AVERAGE(L16:L20)</f>
         <v>0.63580000000000003</v>
       </c>
-      <c r="M29">
-        <f t="shared" si="0"/>
+      <c r="M35">
+        <f>AVERAGE(M16:M20)</f>
         <v>0.73954000000000009</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>3</v>
       </c>
-      <c r="C30">
+      <c r="C36">
         <f>AVERAGE(C21:C25)</f>
         <v>0.10371999999999999</v>
       </c>
-      <c r="D30">
-        <f t="shared" ref="D30:M30" si="1">AVERAGE(D21:D25)</f>
+      <c r="D36">
+        <f>AVERAGE(D21:D25)</f>
         <v>0.11632000000000001</v>
       </c>
-      <c r="E30">
-        <f t="shared" si="1"/>
+      <c r="E36">
+        <f>AVERAGE(E21:E25)</f>
         <v>0.13272</v>
       </c>
-      <c r="F30">
-        <f t="shared" si="1"/>
+      <c r="F36">
+        <f>AVERAGE(F21:F25)</f>
         <v>0.15284</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="1"/>
+      <c r="G36">
+        <f>AVERAGE(G21:G25)</f>
         <v>0.19288</v>
       </c>
-      <c r="H30">
-        <f t="shared" si="1"/>
+      <c r="H36">
+        <f>AVERAGE(H21:H25)</f>
         <v>0.22393999999999997</v>
       </c>
-      <c r="I30">
-        <f t="shared" si="1"/>
+      <c r="I36">
+        <f>AVERAGE(I21:I25)</f>
         <v>0.28311999999999998</v>
       </c>
-      <c r="J30">
-        <f t="shared" si="1"/>
+      <c r="J36">
+        <f>AVERAGE(J21:J25)</f>
         <v>0.31856000000000001</v>
       </c>
-      <c r="K30">
-        <f t="shared" si="1"/>
+      <c r="K36">
+        <f>AVERAGE(K21:K25)</f>
         <v>0.35591999999999996</v>
       </c>
-      <c r="L30">
-        <f t="shared" si="1"/>
+      <c r="L36">
+        <f>AVERAGE(L21:L25)</f>
         <v>0.40684000000000003</v>
       </c>
-      <c r="M30">
-        <f t="shared" si="1"/>
+      <c r="M36">
+        <f>AVERAGE(M21:M25)</f>
         <v>0.43231999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="3">
+        <f>AVERAGE(C26:C30)</f>
+        <v>0.10007999999999999</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" ref="D37:M37" si="0">AVERAGE(D26:D30)</f>
+        <v>0.13513999999999998</v>
+      </c>
+      <c r="E37" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1583</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" si="0"/>
+        <v>0.18956000000000001</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="0"/>
+        <v>0.23018</v>
+      </c>
+      <c r="H37" s="3">
+        <f t="shared" si="0"/>
+        <v>0.24692000000000003</v>
+      </c>
+      <c r="I37" s="3">
+        <f t="shared" si="0"/>
+        <v>0.26513999999999999</v>
+      </c>
+      <c r="J37" s="3">
+        <f t="shared" si="0"/>
+        <v>0.28554000000000002</v>
+      </c>
+      <c r="K37" s="3">
+        <f t="shared" si="0"/>
+        <v>0.35069999999999996</v>
+      </c>
+      <c r="L37" s="3">
+        <f t="shared" si="0"/>
+        <v>0.42375999999999997</v>
+      </c>
+      <c r="M37" s="3">
+        <f t="shared" si="0"/>
+        <v>0.48102</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3">
+        <v>5</v>
+      </c>
+      <c r="E39" s="3">
+        <v>10</v>
+      </c>
+      <c r="F39" s="3">
+        <v>15</v>
+      </c>
+      <c r="G39" s="3">
+        <v>20</v>
+      </c>
+      <c r="H39" s="3">
+        <v>25</v>
+      </c>
+      <c r="I39" s="3">
+        <v>30</v>
+      </c>
+      <c r="J39" s="3">
+        <v>35</v>
+      </c>
+      <c r="K39" s="3">
+        <v>40</v>
+      </c>
+      <c r="L39" s="3">
+        <v>45</v>
+      </c>
+      <c r="M39" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.111</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.126</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.22170000000000001</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0.32479999999999998</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.37290000000000001</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0.38950000000000001</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0.42580000000000001</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0.45129999999999998</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0.47670000000000001</v>
+      </c>
+      <c r="L40" s="3">
+        <v>0.49530000000000002</v>
+      </c>
+      <c r="M40" s="3">
+        <v>0.51439999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="3">
+        <v>9.3899999999999997E-2</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.12609999999999999</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.15409999999999999</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0.29310000000000003</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0.31990000000000002</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0.3715</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0.39119999999999999</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0.40649999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.17960000000000001</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.21510000000000001</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.27939999999999998</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0.33510000000000001</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0.36830000000000002</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0.40479999999999999</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0.42509999999999998</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0.43769999999999998</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0.45579999999999998</v>
       </c>
     </row>
   </sheetData>
